--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\my-app-finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C803D4D3-BB7A-4A8F-AD4A-59C15FC9038D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD267D-3E25-4728-A76E-A1373131EAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B319787A-FA36-41F8-BA06-E8DF05BDD3A4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B319787A-FA36-41F8-BA06-E8DF05BDD3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="orders_data" sheetId="4" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="1270">
   <si>
     <t>name</t>
   </si>
@@ -3875,6 +3875,9 @@
   </si>
   <si>
     <t>Esperava um pouco mais pelo preço.</t>
+  </si>
+  <si>
+    <t>venda_total</t>
   </si>
 </sst>
 </file>
@@ -3927,7 +3930,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3985,8 +3991,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="4" xr16:uid="{C0248A90-445C-4740-8969-0AC29AAD89A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11">
-    <queryTableFields count="10">
+  <queryTableRefresh nextId="12" unboundColumnsRight="1">
+    <queryTableFields count="11">
       <queryTableField id="1" name="customer_id" tableColumnId="1"/>
       <queryTableField id="2" name="product_id" tableColumnId="2"/>
       <queryTableField id="3" name="order_date" tableColumnId="3"/>
@@ -3997,6 +4003,7 @@
       <queryTableField id="8" name="delivery_region" tableColumnId="8"/>
       <queryTableField id="9" name="delivery_time_days" tableColumnId="9"/>
       <queryTableField id="10" name="status" tableColumnId="10"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -4044,22 +4051,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B74DE4C6-B596-4C68-8D92-0D0BE288FF9D}" name="orders_data" displayName="orders_data" ref="A1:J201" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J201" xr:uid="{B74DE4C6-B596-4C68-8D92-0D0BE288FF9D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J201">
-    <sortCondition ref="D1:D201"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B74DE4C6-B596-4C68-8D92-0D0BE288FF9D}" name="orders_data" displayName="orders_data" ref="A1:K201" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K201" xr:uid="{B74DE4C6-B596-4C68-8D92-0D0BE288FF9D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K201">
+    <sortCondition ref="C1:C201"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B29CD55E-FDFE-4AA5-BE98-F063045EE7ED}" uniqueName="1" name="customer_id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{72A3E57F-A0D0-474D-B2AB-F01E3F8239E6}" uniqueName="2" name="product_id" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{7A587035-ABA2-453A-B4F7-E651B2213BEF}" uniqueName="3" name="order_date" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{7A587035-ABA2-453A-B4F7-E651B2213BEF}" uniqueName="3" name="order_date" queryTableFieldId="3" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{BCC8E9B6-75DE-45DD-8E26-26ABCC45CA57}" uniqueName="4" name="quantity" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{0E41EE9D-8271-47D6-87AE-F8EB55DD3716}" uniqueName="5" name="unit_price" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{BF064B8E-82F0-4F08-AB74-DBF69D3C74D5}" uniqueName="6" name="payment_method" queryTableFieldId="6" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{AC4AE77A-400D-4CCE-B8F8-2F42612C39C4}" uniqueName="7" name="delivery_city" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{8EE716DC-CE64-4E9A-B6E4-0C5B8A37BCE8}" uniqueName="8" name="delivery_region" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{BF064B8E-82F0-4F08-AB74-DBF69D3C74D5}" uniqueName="6" name="payment_method" queryTableFieldId="6" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{AC4AE77A-400D-4CCE-B8F8-2F42612C39C4}" uniqueName="7" name="delivery_city" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{8EE716DC-CE64-4E9A-B6E4-0C5B8A37BCE8}" uniqueName="8" name="delivery_region" queryTableFieldId="8" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{5E30BF25-5C02-4D90-83C1-98B6B1F53C76}" uniqueName="9" name="delivery_time_days" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{26CF1E1A-931C-4845-8C65-B66617B9EE1F}" uniqueName="10" name="status" queryTableFieldId="10" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{26CF1E1A-931C-4845-8C65-B66617B9EE1F}" uniqueName="10" name="status" queryTableFieldId="10" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{CAD4880D-6417-4FDB-8628-8BF3BA49BC95}" uniqueName="11" name="venda_total" queryTableFieldId="11" dataDxfId="0">
+      <calculatedColumnFormula>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4069,11 +4079,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5A2A141-CC93-45E1-BA95-4D61C08AFC6D}" name="customers_data__3" displayName="customers_data__3" ref="A1:E1001" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E1001" xr:uid="{E5A2A141-CC93-45E1-BA95-4D61C08AFC6D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CBD1E8E2-E873-4C01-B06C-D0CF635972D7}" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{CBD1E8E2-E873-4C01-B06C-D0CF635972D7}" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{9074ED2E-555C-4BE9-83D8-26940AE460C0}" uniqueName="2" name="age" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{423B8C2A-6310-46F2-908B-D0CF822EF553}" uniqueName="3" name="gender" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{45415960-7376-4F85-907B-D2506E13749E}" uniqueName="4" name="registration_date" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{423A2A42-AD09-49AC-BE20-C430024A4140}" uniqueName="5" name="segment" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{423B8C2A-6310-46F2-908B-D0CF822EF553}" uniqueName="3" name="gender" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{45415960-7376-4F85-907B-D2506E13749E}" uniqueName="4" name="registration_date" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{423A2A42-AD09-49AC-BE20-C430024A4140}" uniqueName="5" name="segment" queryTableFieldId="5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4085,8 +4095,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2F277F65-6A1C-49D8-9C57-49F2D5842A4F}" uniqueName="1" name="order_id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{67234881-5735-47DA-AA93-27F14B5D1B61}" uniqueName="2" name="rating" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5CABB834-D76F-4A0C-AE22-41D2A05F5410}" uniqueName="3" name="review_text" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{173F3EB2-2A64-4FDC-9C15-9EAFE6406C97}" uniqueName="4" name="review_date" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5CABB834-D76F-4A0C-AE22-41D2A05F5410}" uniqueName="3" name="review_text" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{173F3EB2-2A64-4FDC-9C15-9EAFE6406C97}" uniqueName="4" name="review_date" queryTableFieldId="4" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4099,11 +4109,11 @@
     <sortCondition ref="D1:D51"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A37BFA57-2841-4F3C-9FE0-E50EB08FDFAE}" uniqueName="1" name="product_name" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5EF6FF0A-EBC5-43DA-A4A0-D620BE1BEDEA}" uniqueName="2" name="category" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A37BFA57-2841-4F3C-9FE0-E50EB08FDFAE}" uniqueName="1" name="product_name" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5EF6FF0A-EBC5-43DA-A4A0-D620BE1BEDEA}" uniqueName="2" name="category" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{9F9F0AB9-7717-4178-80C2-F5FFF4236055}" uniqueName="3" name="cost_price" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{1FD23507-C76E-437B-960B-02D9F8F3B932}" uniqueName="4" name="selling_price" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{DF2B5945-B466-4FC3-AE3D-3135A7972878}" uniqueName="5" name="supplier" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DF2B5945-B466-4FC3-AE3D-3135A7972878}" uniqueName="5" name="supplier" queryTableFieldId="5" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4426,10 +4436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C565A9-4919-4FE7-9A1C-B5439EECD58E}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,11 +4451,12 @@
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -4476,63 +4487,70 @@
       <c r="J1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>651</v>
+        <v>392</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
-        <v>45767</v>
+        <v>45638</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>5094</v>
+        <v>111519</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>446076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>544</v>
+        <v>460</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
-        <v>45722</v>
+        <v>45639</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>6134</v>
+        <v>26541</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -4540,127 +4558,143 @@
       <c r="J3" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>53082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>45735</v>
+        <v>45640</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>6147</v>
+        <v>101888</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>305664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45812</v>
+        <v>45640</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>9645</v>
+        <v>149127</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>447381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
-        <v>45653</v>
+        <v>45641</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>9838</v>
+        <v>221433</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>885732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>613</v>
+        <v>231</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>45688</v>
+        <v>45641</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>11314</v>
+        <v>161451</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -4668,63 +4702,71 @@
       <c r="J7" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>807255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>774</v>
+        <v>592</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>45789</v>
+        <v>45642</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>12386</v>
+        <v>25633</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>51266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>330</v>
+        <v>874</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>45701</v>
+        <v>45644</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>14887</v>
+        <v>13448</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -4732,415 +4774,467 @@
       <c r="J9" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>26896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>354</v>
+        <v>85</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>45684</v>
+        <v>45644</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>14978</v>
+        <v>83632</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>167264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>45658</v>
+        <v>45644</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>15351</v>
+        <v>246546</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>739638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>862</v>
+        <v>376</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>45718</v>
+        <v>45645</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>17369</v>
+        <v>106892</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>320676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>323</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>45738</v>
+        <v>45648</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>24858</v>
+        <v>18395</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>55185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>877</v>
+        <v>909</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>45674</v>
+        <v>45648</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>25483</v>
+        <v>52125</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>260625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>848</v>
+        <v>670</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45776</v>
+        <v>45649</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>25552</v>
+        <v>182233</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K15" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>182233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>454</v>
+        <v>880</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>45773</v>
+        <v>45650</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>26639</v>
+        <v>209994</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1049970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>45733</v>
+        <v>45653</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>29276</v>
+        <v>9838</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>9838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2">
-        <v>45741</v>
+        <v>45654</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>33094</v>
+        <v>106208</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>531040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
-        <v>45713</v>
+        <v>45655</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>53884</v>
+        <v>142518</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>712590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>714</v>
+        <v>985</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
-        <v>45753</v>
+        <v>45656</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>55114</v>
+        <v>40129</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>120387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>45764</v>
+        <v>45658</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>86424</v>
+        <v>15351</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>15351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>45705</v>
+        <v>45658</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>119633</v>
+        <v>98425</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -5148,223 +5242,251 @@
       <c r="J22" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>295275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2">
-        <v>45771</v>
+        <v>45658</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>149179</v>
+        <v>114152</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>570760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>691</v>
+        <v>437</v>
       </c>
       <c r="B24">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>45676</v>
+        <v>45660</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>177737</v>
+        <v>1237</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>340</v>
+        <v>670</v>
       </c>
       <c r="B25">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
-        <v>45780</v>
+        <v>45662</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>179559</v>
+        <v>17011</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>51033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>670</v>
+        <v>318</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
-        <v>45649</v>
+        <v>45665</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>182233</v>
+        <v>26721</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K26" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>133605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>919</v>
+        <v>676</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>45778</v>
+        <v>45667</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>253837</v>
+        <v>222122</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>888488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45669</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>297134</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28">
         <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>45778</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>261376</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28">
-        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>594268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>621</v>
+        <v>375</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
-        <v>45794</v>
+        <v>45669</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>279061</v>
+        <v>61997</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -5372,31 +5494,35 @@
       <c r="J29" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>309985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>993</v>
+        <v>217</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2">
-        <v>45716</v>
+        <v>45670</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>310046</v>
+        <v>103946</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -5404,351 +5530,395 @@
       <c r="J30" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>519730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45776</v>
+        <v>45673</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>3771</v>
+        <v>30452</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>60904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>561</v>
+        <v>702</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>45806</v>
+        <v>45673</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>3779</v>
+        <v>195307</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>976535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
-        <v>45753</v>
+        <v>45674</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>3982</v>
+        <v>25483</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>25483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>410</v>
+        <v>833</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>45760</v>
+        <v>45674</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34">
-        <v>4216</v>
+        <v>210313</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>420626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>945</v>
+        <v>82</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
-        <v>45789</v>
+        <v>45675</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35">
-        <v>4497</v>
+        <v>49382</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>98764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2">
-        <v>45686</v>
+        <v>45675</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>5112</v>
+        <v>42975</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>128925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>825</v>
+        <v>691</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2">
-        <v>45797</v>
+        <v>45676</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>6226</v>
+        <v>177737</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>177737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>637</v>
+        <v>438</v>
       </c>
       <c r="B38">
         <v>47</v>
       </c>
       <c r="C38" s="2">
-        <v>45810</v>
+        <v>45676</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>8917</v>
+        <v>108096</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>324288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>250</v>
+        <v>874</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2">
-        <v>45772</v>
+        <v>45676</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>9268</v>
+        <v>98591</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>492955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>388</v>
+        <v>847</v>
       </c>
       <c r="B40">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2">
-        <v>45723</v>
+        <v>45677</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>10278</v>
+        <v>27801</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>111204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>874</v>
+        <v>767</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2">
-        <v>45644</v>
+        <v>45678</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>13448</v>
+        <v>21881</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -5756,159 +5926,179 @@
       <c r="J41" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>109405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2">
-        <v>45761</v>
+        <v>45678</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>14928</v>
+        <v>115688</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K42" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>578440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>601</v>
+        <v>789</v>
       </c>
       <c r="B43">
         <v>27</v>
       </c>
       <c r="C43" s="2">
-        <v>45755</v>
+        <v>45683</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>19545</v>
+        <v>2280</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>593</v>
+        <v>541</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2">
-        <v>45814</v>
+        <v>45683</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>22266</v>
+        <v>4958</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K44" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>24790</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>592</v>
+        <v>354</v>
       </c>
       <c r="B45">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C45" s="2">
-        <v>45642</v>
+        <v>45684</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>25633</v>
+        <v>14978</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>14978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>460</v>
+        <v>285</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2">
-        <v>45639</v>
+        <v>45684</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>26541</v>
+        <v>95025</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -5916,607 +6106,683 @@
       <c r="J46" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>285075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2">
-        <v>45673</v>
+        <v>45684</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>30452</v>
+        <v>82541</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="I47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>330164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>535</v>
+        <v>890</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2">
-        <v>45736</v>
+        <v>45685</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>33659</v>
+        <v>218347</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>873388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="B49">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
-        <v>45726</v>
+        <v>45686</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>35452</v>
+        <v>5112</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>10224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>47</v>
+        <v>820</v>
       </c>
       <c r="B50">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2">
-        <v>45715</v>
+        <v>45687</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>39296</v>
+        <v>90366</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>271098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>82</v>
+        <v>613</v>
       </c>
       <c r="B51">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>45675</v>
+        <v>45688</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>49382</v>
+        <v>11314</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>11314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>573</v>
+      </c>
+      <c r="B52">
         <v>22</v>
       </c>
-      <c r="B52">
-        <v>23</v>
-      </c>
       <c r="C52" s="2">
-        <v>45790</v>
+        <v>45688</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>67891</v>
+        <v>12145</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>36435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>991</v>
+        <v>407</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2">
-        <v>45740</v>
+        <v>45689</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>74506</v>
+        <v>12043</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>36129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>719</v>
+        <v>350</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2">
-        <v>45802</v>
+        <v>45689</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>77456</v>
+        <v>11775</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>47100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2">
-        <v>45794</v>
+        <v>45691</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>82974</v>
+        <v>11543</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K55" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>57715</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2">
-        <v>45644</v>
+        <v>45692</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>83632</v>
+        <v>18418</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>55254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>8</v>
+        <v>498</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2">
-        <v>45798</v>
+        <v>45692</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>88254</v>
+        <v>21373</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>85492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2">
-        <v>45763</v>
+        <v>45694</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>95438</v>
+        <v>5916</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>17748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>347</v>
+        <v>924</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2">
-        <v>45762</v>
+        <v>45696</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>100228</v>
+        <v>19064</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>57192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>300</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>143154</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>572616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>892</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>29</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>45697</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>101328</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>36</v>
-      </c>
-      <c r="C61" s="2">
-        <v>45814</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61">
-        <v>107274</v>
+        <v>101328</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K61" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>202656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2">
-        <v>45799</v>
+        <v>45697</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>114361</v>
+        <v>29454</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>88362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>129</v>
+        <v>889</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C63" s="2">
-        <v>45747</v>
+        <v>45699</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>117259</v>
+        <v>93013</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="I63">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>465065</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>112</v>
+        <v>636</v>
       </c>
       <c r="B64">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2">
-        <v>45737</v>
+        <v>45700</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64">
-        <v>143834</v>
+        <v>248667</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>497334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>954</v>
+        <v>330</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C65" s="2">
-        <v>45737</v>
+        <v>45701</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>145658</v>
+        <v>14887</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -6524,511 +6790,575 @@
       <c r="J65" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>14887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>56</v>
+        <v>743</v>
       </c>
       <c r="B66">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2">
-        <v>45783</v>
+        <v>45702</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>152666</v>
+        <v>121923</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K66" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>365769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>363</v>
+        <v>886</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2">
-        <v>45769</v>
+        <v>45703</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>153791</v>
+        <v>10412</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K67" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>41648</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>903</v>
+        <v>697</v>
       </c>
       <c r="B68">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C68" s="2">
-        <v>45734</v>
+        <v>45705</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>164662</v>
+        <v>119633</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>119633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>547</v>
+        <v>283</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>45796</v>
+        <v>45705</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>166408</v>
+        <v>595</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K69" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>851</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C70" s="2">
-        <v>45750</v>
+        <v>45708</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>174653</v>
+        <v>159834</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>479502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>246</v>
+        <v>401</v>
       </c>
       <c r="B71">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C71" s="2">
-        <v>45754</v>
+        <v>45709</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>188769</v>
+        <v>265384</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1326920</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>221</v>
+        <v>775</v>
       </c>
       <c r="B72">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2">
-        <v>45714</v>
+        <v>45711</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>209218</v>
+        <v>86949</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>260847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>864</v>
+        <v>451</v>
       </c>
       <c r="B73">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2">
-        <v>45755</v>
+        <v>45711</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>209849</v>
+        <v>49484</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K73" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>247420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>101</v>
+      </c>
+      <c r="B74">
+        <v>47</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45712</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>94546</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I73">
+      <c r="I74">
         <v>3</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>833</v>
-      </c>
-      <c r="B74">
-        <v>26</v>
-      </c>
-      <c r="C74" s="2">
-        <v>45674</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>210313</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I74">
-        <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>283638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>729</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C75" s="2">
-        <v>45807</v>
+        <v>45712</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>214476</v>
+        <v>24496</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>97984</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>636</v>
+        <v>144</v>
       </c>
       <c r="B76">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C76" s="2">
-        <v>45700</v>
+        <v>45712</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>248667</v>
+        <v>248517</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1242585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="B77">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>45727</v>
+        <v>45712</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>257042</v>
+        <v>265219</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1326095</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>713</v>
+        <v>630</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2">
-        <v>45768</v>
+        <v>45713</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>263212</v>
+        <v>53884</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>53884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C79" s="2">
-        <v>45669</v>
+        <v>45714</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79">
-        <v>297134</v>
+        <v>209218</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>418436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C80" s="2">
-        <v>45705</v>
+        <v>45715</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>595</v>
+        <v>39296</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>78592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>437</v>
+        <v>993</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C81" s="2">
-        <v>45660</v>
+        <v>45716</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>1237</v>
+        <v>310046</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -7036,159 +7366,179 @@
       <c r="J81" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>310046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>38</v>
+        <v>862</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C82" s="2">
-        <v>45726</v>
+        <v>45718</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>5158</v>
+        <v>17369</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>101</v>
       </c>
       <c r="I82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>17369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>615</v>
+        <v>122</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2">
-        <v>45694</v>
+        <v>45719</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>5916</v>
+        <v>10267</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>51335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>407</v>
+        <v>620</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C84" s="2">
-        <v>45689</v>
+        <v>45719</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>12043</v>
+        <v>36763</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>183815</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="B85">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>45688</v>
+        <v>45722</v>
       </c>
       <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>6134</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I85">
         <v>3</v>
-      </c>
-      <c r="E85">
-        <v>12145</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I85">
-        <v>8</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>102</v>
+        <v>785</v>
       </c>
       <c r="B86">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C86" s="2">
-        <v>45744</v>
+        <v>45722</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>15804</v>
+        <v>102404</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -7196,380 +7546,428 @@
       <c r="J86" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>512020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>817</v>
+        <v>388</v>
       </c>
       <c r="B87">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2">
-        <v>45808</v>
+        <v>45723</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>15929</v>
+        <v>10278</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K87" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>20556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C88" s="2">
-        <v>45662</v>
+        <v>45724</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>17011</v>
+        <v>69541</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>278164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>55</v>
+        <v>337</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C89" s="2">
-        <v>45648</v>
+        <v>45726</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>18395</v>
+        <v>35452</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I89">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>70904</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B90">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C90" s="2">
-        <v>45692</v>
+        <v>45726</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
       <c r="E90">
-        <v>18418</v>
+        <v>5158</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>15474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>924</v>
+        <v>293</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2">
-        <v>45696</v>
+        <v>45726</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>19064</v>
+        <v>28432</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="I91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>142160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>671</v>
+        <v>312</v>
       </c>
       <c r="B92">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C92" s="2">
-        <v>45728</v>
+        <v>45727</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>22197</v>
+        <v>257042</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>514084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>825</v>
+        <v>671</v>
       </c>
       <c r="B93">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2">
-        <v>45732</v>
+        <v>45728</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="E93">
-        <v>26528</v>
+        <v>22197</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>66591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>520</v>
+        <v>826</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C94" s="2">
-        <v>45697</v>
+        <v>45730</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94">
-        <v>29454</v>
+        <v>120733</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>362199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>725</v>
+        <v>418</v>
       </c>
       <c r="B95">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C95" s="2">
-        <v>45759</v>
+        <v>45730</v>
       </c>
       <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>6629</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95">
         <v>3</v>
-      </c>
-      <c r="E95">
-        <v>35721</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>33145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>985</v>
+        <v>847</v>
       </c>
       <c r="B96">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C96" s="2">
-        <v>45656</v>
+        <v>45731</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96">
-        <v>40129</v>
+        <v>48591</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>145773</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="B97">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2">
-        <v>45675</v>
+        <v>45731</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>42975</v>
+        <v>59123</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>295615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="B98">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C98" s="2">
-        <v>45731</v>
+        <v>45732</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
       <c r="E98">
-        <v>48591</v>
+        <v>26528</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>88</v>
@@ -7580,31 +7978,35 @@
       <c r="J98" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>79584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="B99">
         <v>39</v>
       </c>
       <c r="C99" s="2">
-        <v>45805</v>
+        <v>45732</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>51039</v>
+        <v>44182</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -7612,127 +8014,143 @@
       <c r="J99" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>176728</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>454</v>
+        <v>273</v>
       </c>
       <c r="B100">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C100" s="2">
-        <v>45737</v>
+        <v>45733</v>
       </c>
       <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>29276</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
         <v>3</v>
-      </c>
-      <c r="E100">
-        <v>54043</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I100">
-        <v>5</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>29276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>33</v>
+        <v>903</v>
       </c>
       <c r="B101">
+        <v>38</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45734</v>
+      </c>
+      <c r="D101">
         <v>2</v>
       </c>
-      <c r="C101" s="2">
-        <v>45772</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
       <c r="E101">
-        <v>57622</v>
+        <v>164662</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>329324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>775</v>
+        <v>522</v>
       </c>
       <c r="B102">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2">
-        <v>45711</v>
+        <v>45735</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>86949</v>
+        <v>6147</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I102">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>820</v>
+        <v>78</v>
       </c>
       <c r="B103">
         <v>36</v>
       </c>
       <c r="C103" s="2">
-        <v>45687</v>
+        <v>45735</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>90366</v>
+        <v>106812</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I103">
         <v>9</v>
@@ -7740,159 +8158,179 @@
       <c r="J103" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>427248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B104">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C104" s="2">
-        <v>45748</v>
+        <v>45735</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>90665</v>
+        <v>72347</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>361735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>332</v>
+        <v>535</v>
       </c>
       <c r="B105">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C105" s="2">
-        <v>45753</v>
+        <v>45736</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>91958</v>
+        <v>33659</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>67318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C106" s="2">
-        <v>45712</v>
+        <v>45736</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
       <c r="E106">
-        <v>94546</v>
+        <v>144032</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>432096</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="B107">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2">
-        <v>45684</v>
+        <v>45737</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>95025</v>
+        <v>143834</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>287668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>732</v>
+        <v>954</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C108" s="2">
-        <v>45658</v>
+        <v>45737</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>98425</v>
+        <v>145658</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -7900,191 +8338,215 @@
       <c r="J108" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>291316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="B109">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C109" s="2">
-        <v>45640</v>
+        <v>45737</v>
       </c>
       <c r="D109">
         <v>3</v>
       </c>
       <c r="E109">
-        <v>101888</v>
+        <v>54043</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>162129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>786</v>
+        <v>323</v>
       </c>
       <c r="B110">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C110" s="2">
-        <v>45810</v>
+        <v>45738</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>103625</v>
+        <v>24858</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="I110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K110" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>24858</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C111" s="2">
-        <v>45645</v>
+        <v>45738</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>106892</v>
+        <v>67281</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>269124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="B112">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C112" s="2">
-        <v>45676</v>
+        <v>45739</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>108096</v>
+        <v>207201</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>828804</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="B113">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C113" s="2">
-        <v>45799</v>
+        <v>45739</v>
       </c>
       <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>242969</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I113">
         <v>3</v>
-      </c>
-      <c r="E113">
-        <v>118773</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I113">
-        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>971876</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>826</v>
+        <v>991</v>
       </c>
       <c r="B114">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C114" s="2">
-        <v>45730</v>
+        <v>45740</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>120733</v>
+        <v>74506</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -8092,287 +8554,323 @@
       <c r="J114" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>149012</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>743</v>
+        <v>526</v>
       </c>
       <c r="B115">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C115" s="2">
-        <v>45702</v>
+        <v>45740</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
       <c r="E115">
-        <v>121923</v>
+        <v>123395</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="I115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>370185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>526</v>
+        <v>62</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C116" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>123395</v>
+        <v>33094</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>33094</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>229</v>
+        <v>559</v>
       </c>
       <c r="B117">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2">
-        <v>45736</v>
+        <v>45743</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>144032</v>
+        <v>33987</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>169935</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C118" s="2">
-        <v>45640</v>
+        <v>45744</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118">
-        <v>149127</v>
+        <v>15804</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>47412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>624</v>
+        <v>493</v>
       </c>
       <c r="B119">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C119" s="2">
-        <v>45790</v>
+        <v>45744</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>156534</v>
+        <v>94345</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>377380</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>851</v>
+        <v>772</v>
       </c>
       <c r="B120">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C120" s="2">
-        <v>45708</v>
+        <v>45744</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>159834</v>
+        <v>113572</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>454288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>750</v>
+        <v>267</v>
       </c>
       <c r="B121">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C121" s="2">
-        <v>45804</v>
+        <v>45744</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>170208</v>
+        <v>133785</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K121" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>668925</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>610</v>
+        <v>409</v>
       </c>
       <c r="B122">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C122" s="2">
-        <v>45769</v>
+        <v>45746</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>176523</v>
+        <v>72828</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>291312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>914</v>
+        <v>262</v>
       </c>
       <c r="B123">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C123" s="2">
-        <v>45755</v>
+        <v>45746</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>178819</v>
+        <v>204418</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -8380,845 +8878,953 @@
       <c r="J123" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>817672</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>498</v>
+        <v>129</v>
       </c>
       <c r="B124">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C124" s="2">
-        <v>45753</v>
+        <v>45747</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>192517</v>
+        <v>117259</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>234518</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>549</v>
+        <v>70</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C125" s="2">
-        <v>45644</v>
+        <v>45747</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>246546</v>
+        <v>213341</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1066705</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>553</v>
+        <v>879</v>
       </c>
       <c r="B126">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C126" s="2">
-        <v>45753</v>
+        <v>45748</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126">
-        <v>258429</v>
+        <v>90665</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>271995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>789</v>
+        <v>30</v>
       </c>
       <c r="B127">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C127" s="2">
-        <v>45683</v>
+        <v>45749</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>2280</v>
+        <v>291087</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1455435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="B128">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C128" s="2">
-        <v>45703</v>
+        <v>45750</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>10412</v>
+        <v>174653</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>349306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>350</v>
+        <v>714</v>
       </c>
       <c r="B129">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C129" s="2">
-        <v>45689</v>
+        <v>45753</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>11775</v>
+        <v>55114</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>55114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>509</v>
+        <v>904</v>
       </c>
       <c r="B130">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C130" s="2">
-        <v>45781</v>
+        <v>45753</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>12681</v>
+        <v>3982</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="I130">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>864</v>
+        <v>332</v>
       </c>
       <c r="B131">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2">
-        <v>45768</v>
+        <v>45753</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>17546</v>
+        <v>91958</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>275874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>498</v>
       </c>
       <c r="B132">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2">
-        <v>45692</v>
+        <v>45753</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>21373</v>
+        <v>192517</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>577551</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>84</v>
+        <v>553</v>
       </c>
       <c r="B133">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C133" s="2">
-        <v>45712</v>
+        <v>45753</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>24496</v>
+        <v>258429</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>775287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>847</v>
+        <v>365</v>
       </c>
       <c r="B134">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C134" s="2">
-        <v>45677</v>
+        <v>45753</v>
       </c>
       <c r="D134">
         <v>4</v>
       </c>
       <c r="E134">
-        <v>27801</v>
+        <v>62609</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I134">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>250436</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="B135">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C135" s="2">
-        <v>45781</v>
+        <v>45754</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>32756</v>
+        <v>188769</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>377538</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>779</v>
+        <v>601</v>
       </c>
       <c r="B136">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C136" s="2">
-        <v>45732</v>
+        <v>45755</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>44182</v>
+        <v>19545</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>39090</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>365</v>
+        <v>864</v>
       </c>
       <c r="B137">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C137" s="2">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>62609</v>
+        <v>209849</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>419698</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>455</v>
+        <v>914</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C138" s="2">
-        <v>45738</v>
+        <v>45755</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>67281</v>
+        <v>178819</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="I138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>536457</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>667</v>
+        <v>824</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C139" s="2">
-        <v>45724</v>
+        <v>45756</v>
       </c>
       <c r="D139">
         <v>4</v>
       </c>
       <c r="E139">
-        <v>69541</v>
+        <v>105542</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>422168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>409</v>
+        <v>597</v>
       </c>
       <c r="B140">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C140" s="2">
-        <v>45746</v>
+        <v>45758</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>72828</v>
+        <v>65082</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="I140">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>325410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
+        <v>725</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C141" s="2">
-        <v>45684</v>
+        <v>45759</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>82541</v>
+        <v>35721</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>107163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>726</v>
+        <v>410</v>
       </c>
       <c r="B142">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C142" s="2">
-        <v>45773</v>
+        <v>45760</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>86917</v>
+        <v>4216</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I142">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>493</v>
+        <v>386</v>
       </c>
       <c r="B143">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C143" s="2">
-        <v>45744</v>
+        <v>45761</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>94345</v>
+        <v>14928</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K143" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>29856</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>824</v>
+        <v>347</v>
       </c>
       <c r="B144">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C144" s="2">
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>105542</v>
+        <v>100228</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>200456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="B145">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C145" s="2">
-        <v>45735</v>
+        <v>45762</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145">
-        <v>106812</v>
+        <v>261657</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I145">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K145" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1046628</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>392</v>
+        <v>689</v>
       </c>
       <c r="B146">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C146" s="2">
-        <v>45638</v>
+        <v>45763</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>111519</v>
+        <v>95438</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>190876</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>772</v>
+        <v>566</v>
       </c>
       <c r="B147">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C147" s="2">
-        <v>45744</v>
+        <v>45764</v>
       </c>
       <c r="D147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>113572</v>
+        <v>86424</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>86424</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>859</v>
+        <v>651</v>
       </c>
       <c r="B148">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C148" s="2">
-        <v>45789</v>
+        <v>45767</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>116185</v>
+        <v>5094</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>300</v>
+        <v>713</v>
       </c>
       <c r="B149">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C149" s="2">
-        <v>45696</v>
+        <v>45768</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>143154</v>
+        <v>263212</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K149" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>526424</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>748</v>
+        <v>864</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C150" s="2">
         <v>45768</v>
@@ -9227,240 +9833,268 @@
         <v>4</v>
       </c>
       <c r="E150">
-        <v>177509</v>
+        <v>17546</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>70184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>262</v>
+        <v>748</v>
       </c>
       <c r="B151">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C151" s="2">
-        <v>45746</v>
+        <v>45768</v>
       </c>
       <c r="D151">
         <v>4</v>
       </c>
       <c r="E151">
-        <v>204418</v>
+        <v>177509</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>710036</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>248</v>
+        <v>610</v>
       </c>
       <c r="B152">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C152" s="2">
-        <v>45739</v>
+        <v>45769</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>207201</v>
+        <v>176523</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>529569</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>890</v>
+        <v>363</v>
       </c>
       <c r="B153">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C153" s="2">
-        <v>45685</v>
+        <v>45769</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>218347</v>
+        <v>153791</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K153" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>307582</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>515</v>
+      </c>
+      <c r="B154">
+        <v>46</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45771</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>149179</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I153">
-        <v>5</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>37</v>
-      </c>
-      <c r="B154">
-        <v>42</v>
-      </c>
-      <c r="C154" s="2">
-        <v>45641</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="E154">
-        <v>221433</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G154" s="1" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I154">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>149179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>676</v>
+        <v>250</v>
       </c>
       <c r="B155">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C155" s="2">
-        <v>45667</v>
+        <v>45772</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>222122</v>
+        <v>9268</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I155">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>18536</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>997</v>
+        <v>33</v>
       </c>
       <c r="B156">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C156" s="2">
-        <v>45777</v>
+        <v>45772</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>241616</v>
+        <v>57622</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>172866</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>535</v>
+        <v>454</v>
       </c>
       <c r="B157">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C157" s="2">
-        <v>45739</v>
+        <v>45773</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>242969</v>
+        <v>26639</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I157">
         <v>3</v>
@@ -9468,191 +10102,215 @@
       <c r="J157" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>26639</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>148</v>
+        <v>726</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C158" s="2">
-        <v>45762</v>
+        <v>45773</v>
       </c>
       <c r="D158">
         <v>4</v>
       </c>
       <c r="E158">
-        <v>261657</v>
+        <v>86917</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K158" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>347668</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>340</v>
+        <v>144</v>
       </c>
       <c r="B159">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C159" s="2">
-        <v>45805</v>
+        <v>45774</v>
       </c>
       <c r="D159">
         <v>5</v>
       </c>
       <c r="E159">
-        <v>370</v>
+        <v>102199</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="I159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>510995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>865</v>
+        <v>172</v>
       </c>
       <c r="B160">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C160" s="2">
-        <v>45815</v>
+        <v>45774</v>
       </c>
       <c r="D160">
         <v>5</v>
       </c>
       <c r="E160">
-        <v>1538</v>
+        <v>219502</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I160">
+        <v>8</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K160" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1097510</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>848</v>
+      </c>
+      <c r="B161">
+        <v>43</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45776</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>25552</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I160">
+      <c r="G161" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I161">
         <v>0</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>541</v>
-      </c>
-      <c r="B161">
-        <v>11</v>
-      </c>
-      <c r="C161" s="2">
-        <v>45683</v>
-      </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-      <c r="E161">
-        <v>4958</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I161">
-        <v>5</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>25552</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>418</v>
+        <v>535</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C162" s="2">
-        <v>45730</v>
+        <v>45776</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>6629</v>
+        <v>3771</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>7542</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>122</v>
+        <v>997</v>
       </c>
       <c r="B163">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C163" s="2">
-        <v>45719</v>
+        <v>45777</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>10267</v>
+        <v>241616</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -9660,383 +10318,431 @@
       <c r="J163" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>966464</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>760</v>
+        <v>919</v>
       </c>
       <c r="B164">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C164" s="2">
-        <v>45691</v>
+        <v>45778</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>11543</v>
+        <v>253837</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>253837</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>576</v>
+        <v>106</v>
       </c>
       <c r="B165">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2">
-        <v>45789</v>
+        <v>45778</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>16132</v>
+        <v>261376</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="I165">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>261376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>767</v>
+        <v>564</v>
       </c>
       <c r="B166">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C166" s="2">
-        <v>45678</v>
+        <v>45779</v>
       </c>
       <c r="D166">
         <v>5</v>
       </c>
       <c r="E166">
-        <v>21881</v>
+        <v>31431</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>157155</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="B167">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C167" s="2">
-        <v>45665</v>
+        <v>45779</v>
       </c>
       <c r="D167">
         <v>5</v>
       </c>
       <c r="E167">
-        <v>26721</v>
+        <v>101619</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I167">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>508095</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="B168">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C168" s="2">
-        <v>45726</v>
+        <v>45780</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>28432</v>
+        <v>179559</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="I168">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>179559</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>369</v>
+        <v>509</v>
       </c>
       <c r="B169">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C169" s="2">
-        <v>45808</v>
+        <v>45781</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>30823</v>
+        <v>12681</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I169">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>50724</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>564</v>
+        <v>304</v>
       </c>
       <c r="B170">
         <v>17</v>
       </c>
       <c r="C170" s="2">
-        <v>45779</v>
+        <v>45781</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>31431</v>
+        <v>32756</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I170">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>131024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>559</v>
+        <v>56</v>
       </c>
       <c r="B171">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C171" s="2">
-        <v>45743</v>
+        <v>45783</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>33987</v>
+        <v>152666</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K171" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>305332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>620</v>
+        <v>774</v>
       </c>
       <c r="B172">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C172" s="2">
-        <v>45719</v>
+        <v>45789</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>36763</v>
+        <v>12386</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>12386</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>451</v>
+        <v>945</v>
       </c>
       <c r="B173">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C173" s="2">
-        <v>45711</v>
+        <v>45789</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>49484</v>
+        <v>4497</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K173" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>909</v>
+        <v>859</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C174" s="2">
-        <v>45648</v>
+        <v>45789</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>52125</v>
+        <v>116185</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I174">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>464740</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>178</v>
+        <v>576</v>
       </c>
       <c r="B175">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C175" s="2">
-        <v>45731</v>
+        <v>45789</v>
       </c>
       <c r="D175">
         <v>5</v>
       </c>
       <c r="E175">
-        <v>59123</v>
+        <v>16132</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I175">
         <v>4</v>
@@ -10044,31 +10750,35 @@
       <c r="J175" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>80660</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>375</v>
+        <v>22</v>
       </c>
       <c r="B176">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C176" s="2">
-        <v>45669</v>
+        <v>45790</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>61997</v>
+        <v>67891</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I176">
         <v>3</v>
@@ -10076,360 +10786,408 @@
       <c r="J176" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>135782</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="B177">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C177" s="2">
-        <v>45758</v>
+        <v>45790</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>65082</v>
+        <v>156534</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="I177">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>469602</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>865</v>
+        <v>621</v>
       </c>
       <c r="B178">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C178" s="2">
-        <v>45735</v>
+        <v>45794</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>72347</v>
+        <v>279061</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>279061</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>889</v>
+        <v>743</v>
       </c>
       <c r="B179">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C179" s="2">
-        <v>45699</v>
+        <v>45794</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>93013</v>
+        <v>82974</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K179" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>165948</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>874</v>
+        <v>547</v>
       </c>
       <c r="B180">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C180" s="2">
-        <v>45676</v>
+        <v>45796</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>98591</v>
+        <v>166408</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K180" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>332816</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>372</v>
+        <v>825</v>
       </c>
       <c r="B181">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C181" s="2">
-        <v>45779</v>
+        <v>45797</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>101619</v>
+        <v>6226</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="I181">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>12452</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>144</v>
+        <v>954</v>
       </c>
       <c r="B182">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C182" s="2">
-        <v>45774</v>
+        <v>45797</v>
       </c>
       <c r="D182">
         <v>5</v>
       </c>
       <c r="E182">
-        <v>102199</v>
+        <v>150011</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I182">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>750055</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>785</v>
+        <v>8</v>
       </c>
       <c r="B183">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C183" s="2">
-        <v>45722</v>
+        <v>45798</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>102404</v>
+        <v>88254</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>176508</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="B184">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C184" s="2">
-        <v>45670</v>
+        <v>45798</v>
       </c>
       <c r="D184">
         <v>5</v>
       </c>
       <c r="E184">
-        <v>103946</v>
+        <v>187703</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>938515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>312</v>
+        <v>485</v>
       </c>
       <c r="B185">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C185" s="2">
-        <v>45654</v>
+        <v>45799</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>106208</v>
+        <v>114361</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="I185">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>228722</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B186">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C186" s="2">
-        <v>45658</v>
+        <v>45799</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>114152</v>
+        <v>118773</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>356319</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>76</v>
+        <v>719</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C187" s="2">
-        <v>45678</v>
+        <v>45802</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>115688</v>
+        <v>77456</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>154912</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>715</v>
       </c>
@@ -10460,421 +11218,477 @@
       <c r="J188" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>621530</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>267</v>
+        <v>750</v>
       </c>
       <c r="B189">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C189" s="2">
-        <v>45744</v>
+        <v>45804</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>133785</v>
+        <v>170208</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="I189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="K189" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>510624</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>610</v>
+        <v>792</v>
       </c>
       <c r="B190">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C190" s="2">
-        <v>45655</v>
+        <v>45805</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>142518</v>
+        <v>51039</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="I190">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>153117</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>954</v>
+        <v>340</v>
       </c>
       <c r="B191">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C191" s="2">
-        <v>45797</v>
+        <v>45805</v>
       </c>
       <c r="D191">
         <v>5</v>
       </c>
       <c r="E191">
-        <v>150011</v>
+        <v>370</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="I191">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>231</v>
+        <v>561</v>
       </c>
       <c r="B192">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C192" s="2">
-        <v>45641</v>
+        <v>45806</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>161451</v>
+        <v>3779</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="I192">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>7558</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>367</v>
+        <v>729</v>
       </c>
       <c r="B193">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C193" s="2">
-        <v>45798</v>
+        <v>45807</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>187703</v>
+        <v>214476</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="I193">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>428952</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>702</v>
+        <v>369</v>
       </c>
       <c r="B194">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C194" s="2">
-        <v>45673</v>
+        <v>45808</v>
       </c>
       <c r="D194">
         <v>5</v>
       </c>
       <c r="E194">
-        <v>195307</v>
+        <v>30823</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>154115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>880</v>
+        <v>817</v>
       </c>
       <c r="B195">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C195" s="2">
-        <v>45650</v>
+        <v>45808</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>209994</v>
+        <v>15929</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="I195">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K195" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>47787</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>70</v>
+        <v>786</v>
       </c>
       <c r="B196">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C196" s="2">
-        <v>45747</v>
+        <v>45810</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>213341</v>
+        <v>103625</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="K196" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>310875</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>172</v>
+        <v>637</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C197" s="2">
-        <v>45774</v>
+        <v>45810</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>219502</v>
+        <v>8917</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I197">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>17834</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C198" s="2">
-        <v>45712</v>
+        <v>45812</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>248517</v>
+        <v>9645</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>9645</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="B199">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C199" s="2">
-        <v>45712</v>
+        <v>45814</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>265219</v>
+        <v>22266</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="I199">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="K199" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="B200">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C200" s="2">
-        <v>45709</v>
+        <v>45814</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>265384</v>
+        <v>107274</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I200">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="K200" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>214548</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>30</v>
+        <v>865</v>
       </c>
       <c r="B201">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C201" s="2">
-        <v>45749</v>
+        <v>45815</v>
       </c>
       <c r="D201">
         <v>5</v>
       </c>
       <c r="E201">
-        <v>291087</v>
+        <v>1538</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I201">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>71</v>
+        <v>150</v>
+      </c>
+      <c r="K201" s="1">
+        <f>orders_data[[#This Row],[quantity]]*orders_data[[#This Row],[unit_price]]</f>
+        <v>7690</v>
       </c>
     </row>
   </sheetData>
@@ -10889,14 +11703,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3141C83-8385-4E6A-9CF0-C7FC1F55CF48}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
